--- a/BASE_templates/40_05v01_Demix_CMMIv2QuestionsTool.xlsx
+++ b/BASE_templates/40_05v01_Demix_CMMIv2QuestionsTool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BASE_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\BASE_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF11C3E6-B80C-46FF-B979-D00D18FBCF0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3410DE8-BE06-4A13-8E92-8EBB0DBC49C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="13" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="26" r:id="rId1"/>
@@ -2855,30 +2855,8 @@
 '请描述一下是如何执行版本控制的？</t>
   </si>
   <si>
-    <t>- How to you identify what items to put under configuration management
-'如何识别要管理的项目？</t>
-  </si>
-  <si>
-    <t>- What configuration management systems do you?
-'使用什么配置管理系统？</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>- Explain how you establish software baselines for the basis of further development?
-'请解释如何为进一步开发建立软件基线？ 
-- Explain how you establish software releases that for the basis for further development?
-请解释如何建立软件版本作为进一步开发奠定基础？</t>
-  </si>
-  <si>
-    <t>- How do you manage changes to items under configuration management?
-'如何管理配置管理下的变更？</t>
-  </si>
-  <si>
-    <t>- What records to you maintain on configuration items?
-'对于配置项会保留哪些记录？</t>
   </si>
   <si>
     <t>- How do you ensure the integrity of items under configuration management, the integrity of baselines and the integrity of releases?
@@ -4308,6 +4286,28 @@
   <si>
     <t>Develop high level estimates to perform the work. 
 制定粗略估算来执行工作</t>
+  </si>
+  <si>
+    <t>- How do you identify what items (documents and source code) to put under configuration management?
+'如何识别要管理的项目？</t>
+  </si>
+  <si>
+    <t>- What configuration management systems do you use (the name of the system or systems)?
+'使用什么配置管理系统？</t>
+  </si>
+  <si>
+    <t>- Explain how you establish software baselines and how these baselines form the basis for further development and furhter code releases?
+'请解释如何为进一步开发建立软件基线？ 
+- Explain how you establish software releases that for the basis for further development?
+请解释如何建立软件版本作为进一步开发奠定基础？</t>
+  </si>
+  <si>
+    <t>- How do you manage changes (who is allowed to make changes) to items under configuration management, as well as configuration management baselines and releases?
+'如何管理配置管理下的变更？</t>
+  </si>
+  <si>
+    <t>- What records, such as version history, do you maintain on configuration items?
+'对于配置项会保留哪些记录？</t>
   </si>
 </sst>
 </file>
@@ -5987,7 +5987,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -6166,7 +6166,7 @@
         <v>784</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>499</v>
@@ -6175,7 +6175,7 @@
         <v>500</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -6212,7 +6212,7 @@
         <v>785</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>501</v>
@@ -6221,7 +6221,7 @@
         <v>502</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -6247,7 +6247,7 @@
         <v>786</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>503</v>
@@ -6256,7 +6256,7 @@
         <v>504</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -6282,7 +6282,7 @@
         <v>787</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>505</v>
@@ -6291,7 +6291,7 @@
         <v>506</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
@@ -6301,7 +6301,7 @@
         <v>788</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>507</v>
@@ -6310,7 +6310,7 @@
         <v>508</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -6347,7 +6347,7 @@
         <v>789</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>509</v>
@@ -6356,7 +6356,7 @@
         <v>510</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -7282,7 +7282,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -7455,7 +7455,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>727</v>
@@ -7464,7 +7464,7 @@
         <v>511</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -7474,7 +7474,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>512</v>
@@ -7483,7 +7483,7 @@
         <v>513</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="64"/>
@@ -7534,14 +7534,14 @@
         <v>94</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
         <v>783</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -7551,14 +7551,14 @@
         <v>95</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="65" t="s">
         <v>514</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
@@ -7568,7 +7568,7 @@
         <v>96</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>515</v>
@@ -7577,7 +7577,7 @@
         <v>516</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -7602,7 +7602,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>517</v>
@@ -7611,7 +7611,7 @@
         <v>518</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -7636,7 +7636,7 @@
         <v>98</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>519</v>
@@ -7645,7 +7645,7 @@
         <v>520</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -7655,7 +7655,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C18" s="84" t="s">
         <v>521</v>
@@ -7664,7 +7664,7 @@
         <v>522</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -7685,14 +7685,14 @@
         <v>100</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="65" t="s">
         <v>523</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
@@ -7717,14 +7717,14 @@
         <v>101</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="65" t="s">
         <v>528</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
@@ -7749,14 +7749,14 @@
         <v>102</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="65" t="s">
         <v>529</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
@@ -7766,14 +7766,14 @@
         <v>103</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="65" t="s">
         <v>530</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F23" s="64"/>
       <c r="G23" s="64"/>
@@ -7783,14 +7783,14 @@
         <v>104</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="65" t="s">
         <v>531</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
@@ -7815,14 +7815,14 @@
         <v>105</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="65" t="s">
         <v>524</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F25" s="64"/>
       <c r="G25" s="64"/>
@@ -7858,14 +7858,14 @@
         <v>106</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="65" t="s">
         <v>525</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="64"/>
@@ -7875,14 +7875,14 @@
         <v>107</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="65" t="s">
         <v>526</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F28" s="64"/>
       <c r="G28" s="64"/>
@@ -7907,14 +7907,14 @@
         <v>108</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="65" t="s">
         <v>527</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -7939,14 +7939,14 @@
         <v>109</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="65" t="s">
         <v>532</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="64"/>
@@ -7971,14 +7971,14 @@
         <v>110</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="65" t="s">
         <v>533</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="F31" s="64"/>
       <c r="G31" s="64"/>
@@ -8014,14 +8014,14 @@
         <v>111</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="65" t="s">
         <v>534</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F33" s="64"/>
       <c r="G33" s="64"/>
@@ -8046,14 +8046,14 @@
         <v>112</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="65" t="s">
         <v>535</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
@@ -8078,14 +8078,14 @@
         <v>113</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="65" t="s">
         <v>536</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -8120,7 +8120,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -8201,14 +8201,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="65" t="s">
         <v>537</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -8229,7 +8229,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>539</v>
@@ -8238,7 +8238,7 @@
         <v>538</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -8248,7 +8248,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>540</v>
@@ -8257,7 +8257,7 @@
         <v>541</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -8278,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>543</v>
@@ -8287,7 +8287,7 @@
         <v>542</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -8297,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>544</v>
@@ -8306,7 +8306,7 @@
         <v>545</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -8316,7 +8316,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>547</v>
@@ -8325,7 +8325,7 @@
         <v>546</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -8335,7 +8335,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>548</v>
@@ -8344,7 +8344,7 @@
         <v>549</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="64"/>
@@ -8354,7 +8354,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>550</v>
@@ -8363,7 +8363,7 @@
         <v>551</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F19" s="65"/>
       <c r="G19" s="64"/>
@@ -8384,7 +8384,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>553</v>
@@ -8393,7 +8393,7 @@
         <v>552</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="F21" s="65"/>
       <c r="G21" s="64"/>
@@ -8403,7 +8403,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C22" s="84" t="s">
         <v>555</v>
@@ -8412,7 +8412,7 @@
         <v>554</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F22" s="84"/>
       <c r="G22" s="64"/>
@@ -8433,7 +8433,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C24" s="65" t="s">
         <v>557</v>
@@ -8442,7 +8442,7 @@
         <v>556</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="F24" s="65"/>
       <c r="G24" s="64"/>
@@ -8553,7 +8553,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="31" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -8903,7 +8903,7 @@
         <v>164</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>719</v>
@@ -8912,7 +8912,7 @@
         <v>718</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -8959,14 +8959,14 @@
         <v>165</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="65" t="s">
         <v>720</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -9002,14 +9002,14 @@
         <v>166</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
         <v>721</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -9045,14 +9045,14 @@
         <v>167</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="65" t="s">
         <v>726</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -9099,14 +9099,14 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="65" t="s">
         <v>722</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -9142,14 +9142,14 @@
         <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="65" t="s">
         <v>723</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -9185,7 +9185,7 @@
         <v>170</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>724</v>
@@ -9194,7 +9194,7 @@
         <v>725</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -9230,12 +9230,12 @@
         <v>171</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="65" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -9245,12 +9245,12 @@
         <v>172</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="65" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -9286,12 +9286,12 @@
         <v>173</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
       <c r="E21" s="65" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
@@ -9327,12 +9327,12 @@
         <v>174</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
       <c r="E22" s="65" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="10"/>
@@ -9380,7 +9380,7 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -9405,7 +9405,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="39" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -9625,7 +9625,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>571</v>
@@ -9634,7 +9634,7 @@
         <v>575</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -9681,7 +9681,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>572</v>
@@ -9690,7 +9690,7 @@
         <v>579</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -9715,7 +9715,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>573</v>
@@ -9724,7 +9724,7 @@
         <v>574</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -9751,7 +9751,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>580</v>
@@ -9760,7 +9760,7 @@
         <v>576</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -9809,14 +9809,14 @@
         <v>74</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="63" t="s">
         <v>577</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -9843,7 +9843,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C17" s="63" t="s">
         <v>581</v>
@@ -9852,7 +9852,7 @@
         <v>578</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -10564,7 +10564,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -10661,7 +10661,7 @@
         <v>177</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>567</v>
@@ -10670,7 +10670,7 @@
         <v>558</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
@@ -10680,14 +10680,14 @@
         <v>178</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="65" t="s">
         <v>559</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F11" s="101"/>
       <c r="G11" s="64"/>
@@ -10699,14 +10699,14 @@
         <v>179</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="65" t="s">
         <v>560</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="64"/>
@@ -10733,7 +10733,7 @@
         <v>699</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>712</v>
@@ -10742,7 +10742,7 @@
         <v>709</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="F14" s="101"/>
       <c r="G14" s="64"/>
@@ -10752,7 +10752,7 @@
         <v>700</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>713</v>
@@ -10761,7 +10761,7 @@
         <v>561</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="64"/>
@@ -10788,7 +10788,7 @@
         <v>701</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>710</v>
@@ -10797,7 +10797,7 @@
         <v>562</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="F17" s="101"/>
       <c r="G17" s="64"/>
@@ -10809,7 +10809,7 @@
         <v>702</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>711</v>
@@ -10818,7 +10818,7 @@
         <v>563</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
@@ -10828,14 +10828,14 @@
         <v>703</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="65" t="s">
         <v>568</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -10847,7 +10847,7 @@
         <v>704</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>714</v>
@@ -10856,7 +10856,7 @@
         <v>564</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
@@ -10868,7 +10868,7 @@
         <v>705</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>715</v>
@@ -10877,7 +10877,7 @@
         <v>565</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
@@ -10889,14 +10889,14 @@
         <v>706</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="65" t="s">
         <v>566</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
@@ -10932,7 +10932,7 @@
         <v>716</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
@@ -10971,7 +10971,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -11105,12 +11105,12 @@
         <v>128</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -11135,12 +11135,12 @@
         <v>129</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -11152,12 +11152,12 @@
         <v>130</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -11184,12 +11184,12 @@
         <v>131</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -11201,12 +11201,12 @@
         <v>132</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -11218,12 +11218,12 @@
         <v>133</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -11235,14 +11235,14 @@
         <v>134</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="63" t="s">
         <v>569</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -11254,12 +11254,12 @@
         <v>135</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -11271,12 +11271,12 @@
         <v>136</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -11530,7 +11530,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="39" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -11745,12 +11745,12 @@
         <v>62</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="65" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -11773,12 +11773,12 @@
         <v>63</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="65" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="64"/>
@@ -11815,14 +11815,14 @@
         <v>64</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -11845,12 +11845,12 @@
         <v>65</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="65" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
@@ -11871,12 +11871,12 @@
         <v>66</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -11889,12 +11889,12 @@
         <v>67</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -11907,12 +11907,12 @@
         <v>68</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="65" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -11957,14 +11957,14 @@
         <v>69</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="65" t="s">
         <v>570</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F19" s="65"/>
       <c r="G19" s="64"/>
@@ -12573,7 +12573,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="87"/>
@@ -12795,14 +12795,14 @@
         <v>116</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="63" t="s">
         <v>582</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -12823,14 +12823,14 @@
         <v>117</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="63" t="s">
         <v>583</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -12875,12 +12875,12 @@
         <v>118</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -12901,14 +12901,14 @@
         <v>119</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="63" t="s">
         <v>586</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -12929,7 +12929,7 @@
         <v>120</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>646</v>
@@ -12938,7 +12938,7 @@
         <v>645</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -12959,7 +12959,7 @@
         <v>121</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C16" s="63" t="s">
         <v>584</v>
@@ -12968,7 +12968,7 @@
         <v>587</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -13013,16 +13013,16 @@
         <v>122</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>585</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -13045,14 +13045,14 @@
         <v>123</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="63" t="s">
         <v>588</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -13073,14 +13073,14 @@
         <v>124</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="63" t="s">
         <v>589</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -13101,14 +13101,14 @@
         <v>125</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="63" t="s">
         <v>590</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
@@ -13604,7 +13604,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="39" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -13811,12 +13811,12 @@
         <v>139</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="65" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -13859,12 +13859,12 @@
         <v>140</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="65" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -13885,12 +13885,12 @@
         <v>141</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="65" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -13900,14 +13900,14 @@
         <v>142</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>591</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="65" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
@@ -13917,12 +13917,12 @@
         <v>143</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -13965,14 +13965,14 @@
         <v>144</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>592</v>
       </c>
       <c r="D17" s="64"/>
       <c r="E17" s="65" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -20586,7 +20586,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="87"/>
@@ -20808,12 +20808,12 @@
         <v>212</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="65" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -20860,12 +20860,12 @@
         <v>213</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="65" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -20890,12 +20890,12 @@
         <v>214</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="65" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -20942,12 +20942,12 @@
         <v>215</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="65" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -20970,12 +20970,12 @@
         <v>216</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="65" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -20998,12 +20998,12 @@
         <v>217</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="65" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -21026,12 +21026,12 @@
         <v>218</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="65" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="64"/>
@@ -21054,12 +21054,12 @@
         <v>219</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="65" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="F19" s="65"/>
       <c r="G19" s="64"/>
@@ -21599,7 +21599,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="31" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -21821,12 +21821,12 @@
         <v>147</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -21849,12 +21849,12 @@
         <v>148</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="63" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -21901,12 +21901,12 @@
         <v>149</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -21933,12 +21933,12 @@
         <v>150</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -21965,12 +21965,12 @@
         <v>151</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -21995,12 +21995,12 @@
         <v>152</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -22027,12 +22027,12 @@
         <v>153</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -22057,12 +22057,12 @@
         <v>154</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="63" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -22085,12 +22085,12 @@
         <v>155</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -22115,12 +22115,12 @@
         <v>156</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -22167,12 +22167,12 @@
         <v>157</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="63" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="10"/>
@@ -22197,12 +22197,12 @@
         <v>158</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="63" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="10"/>
@@ -22227,12 +22227,12 @@
         <v>159</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="63" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F24" s="63"/>
       <c r="G24" s="10"/>
@@ -22259,12 +22259,12 @@
         <v>160</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="63" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="F25" s="63"/>
       <c r="G25" s="10"/>
@@ -22315,12 +22315,12 @@
         <v>161</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="63" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="10"/>
@@ -22747,7 +22747,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -22965,12 +22965,12 @@
         <v>196</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -23017,12 +23017,12 @@
         <v>197</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -23045,12 +23045,12 @@
         <v>198</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -23075,12 +23075,12 @@
         <v>199</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -23103,12 +23103,12 @@
         <v>200</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -23131,12 +23131,12 @@
         <v>201</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="10"/>
@@ -23159,12 +23159,12 @@
         <v>202</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="10"/>
@@ -23213,12 +23213,12 @@
         <v>203</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="10"/>
@@ -23241,12 +23241,12 @@
         <v>204</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -23269,12 +23269,12 @@
         <v>205</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="63" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
@@ -23297,12 +23297,12 @@
         <v>206</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="63" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="10"/>
@@ -23325,12 +23325,12 @@
         <v>207</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="63" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="10"/>
@@ -23353,12 +23353,12 @@
         <v>208</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="63" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="F24" s="63"/>
       <c r="G24" s="10"/>
@@ -23379,12 +23379,12 @@
         <v>209</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="63" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="F25" s="63"/>
       <c r="G25" s="10"/>
@@ -23758,7 +23758,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -24029,7 +24029,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -24057,7 +24057,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -24085,7 +24085,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -24113,7 +24113,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -24141,7 +24141,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -24169,7 +24169,7 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -24219,7 +24219,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -24245,7 +24245,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -24271,7 +24271,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="63" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
@@ -24977,7 +24977,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -25195,12 +25195,12 @@
         <v>233</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -25243,12 +25243,12 @@
         <v>234</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -25271,12 +25271,12 @@
         <v>235</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -25299,12 +25299,12 @@
         <v>236</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -25351,12 +25351,12 @@
         <v>237</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -25379,12 +25379,12 @@
         <v>238</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -25407,12 +25407,12 @@
         <v>239</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="63" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -25433,12 +25433,12 @@
         <v>240</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -25459,12 +25459,12 @@
         <v>241</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -25485,12 +25485,12 @@
         <v>242</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="10"/>
@@ -26198,7 +26198,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -26416,12 +26416,12 @@
         <v>245</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="10"/>
@@ -26442,12 +26442,12 @@
         <v>246</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="63" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -26492,12 +26492,12 @@
         <v>247</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -26518,12 +26518,12 @@
         <v>248</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -26544,12 +26544,12 @@
         <v>249</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -26594,12 +26594,12 @@
         <v>250</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -26620,12 +26620,12 @@
         <v>251</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="63" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -26981,7 +26981,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -27199,12 +27199,12 @@
         <v>221</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -27225,12 +27225,12 @@
         <v>222</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="63" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -27251,12 +27251,12 @@
         <v>223</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -27301,12 +27301,12 @@
         <v>224</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -27327,12 +27327,12 @@
         <v>225</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -27353,12 +27353,12 @@
         <v>226</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -27379,12 +27379,12 @@
         <v>227</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -27429,12 +27429,12 @@
         <v>228</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -27455,12 +27455,12 @@
         <v>229</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -33879,8 +33879,8 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -34121,7 +34121,7 @@
         <v>488</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>847</v>
+        <v>1203</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -34157,7 +34157,7 @@
         <v>490</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>848</v>
+        <v>1204</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -34177,7 +34177,7 @@
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
     </row>
-    <row r="14" spans="1:22" s="27" customFormat="1" ht="52">
+    <row r="14" spans="1:22" s="27" customFormat="1" ht="65">
       <c r="A14" s="68" t="s">
         <v>58</v>
       </c>
@@ -34191,10 +34191,10 @@
         <v>492</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>850</v>
+        <v>1205</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G14" s="64"/>
       <c r="I14" s="25" t="s">
@@ -34215,7 +34215,7 @@
         <v>494</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>851</v>
+        <v>1206</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -34235,7 +34235,7 @@
         <v>496</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>852</v>
+        <v>1207</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -34269,7 +34269,7 @@
         <v>498</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -35018,6 +35018,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F041F74863103D4C9C3AA0A07291BB02" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6917a42179461cc29e626d7b562cefd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25bcabcf-d275-4206-9fb1-2f2d419cd22b" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a71d797267f4c7d6ca005f01f7b1c6c" ns2:_="" ns3:_="">
     <xsd:import namespace="25bcabcf-d275-4206-9fb1-2f2d419cd22b"/>
@@ -35234,22 +35249,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4696E80A-5EE3-495A-8B89-1496BDDC23B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35266,29 +35291,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BASE_templates/40_05v01_Demix_CMMIv2QuestionsTool.xlsx
+++ b/BASE_templates/40_05v01_Demix_CMMIv2QuestionsTool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\BASE_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3410DE8-BE06-4A13-8E92-8EBB0DBC49C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760994CB-8523-48D5-9D9C-0446C7BC6F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="15" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="26" r:id="rId1"/>
@@ -10953,8 +10953,8 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -33879,7 +33879,7 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E17"/>
     </sheetView>
   </sheetViews>
@@ -35018,21 +35018,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F041F74863103D4C9C3AA0A07291BB02" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6917a42179461cc29e626d7b562cefd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25bcabcf-d275-4206-9fb1-2f2d419cd22b" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a71d797267f4c7d6ca005f01f7b1c6c" ns2:_="" ns3:_="">
     <xsd:import namespace="25bcabcf-d275-4206-9fb1-2f2d419cd22b"/>
@@ -35249,32 +35234,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4696E80A-5EE3-495A-8B89-1496BDDC23B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35291,4 +35266,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BASE_templates/40_05v01_Demix_CMMIv2QuestionsTool.xlsx
+++ b/BASE_templates/40_05v01_Demix_CMMIv2QuestionsTool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\BASE_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760994CB-8523-48D5-9D9C-0446C7BC6F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8B4AD-9B73-4A4F-AA07-5632B070C3B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="15" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="26" r:id="rId1"/>
@@ -1569,9 +1569,6 @@
     <t>Possible answers</t>
   </si>
   <si>
-    <t>- How do you (senior management) provide governance and oversight of effective process implementation and improvement?</t>
-  </si>
-  <si>
     <t>- Improvement incentives, rewards and recognition for process "champions"</t>
   </si>
   <si>
@@ -2000,15 +1997,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">- What resources and training have you (senior management) provided for 1) developing, supporting, 2) performing, 3) improving and 4) evaluating adherence to expected processes?	 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>（高层）为开发、支持/执行过程/改进过程/评估对期望过程的遵循情况提供了哪些资源和培训？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>- How do you (senior management) provide governance and oversight of effective process implementation and improvement?</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2787,21 +2776,12 @@
 改进的目标</t>
   </si>
   <si>
-    <t xml:space="preserve">- How do they tell staff that they expect them to follow process in order to achieve the business objectives? 
-- How does senior management identify what is essential for doing work?
-- How does senior management define the approach needed to accomplish the objectives of the organisation?       </t>
-  </si>
-  <si>
     <t>- Develop the strategy (may include a mission and/or vision statement) 
 - Define a strategic target to be achieved</t>
   </si>
   <si>
     <t>- Organisational strategy with strategic targets
 - Process improvement directives in support of achieving the strategic targets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- What organisational objectives has senior management defined and communicated?
-- Are these objectives to be achieved through process improvements?	</t>
   </si>
   <si>
     <t>- Verify compliance to directives
@@ -2892,18 +2872,6 @@
   <si>
     <t>- How do you identify work products and processes for process quality assurance?
 '如何识别工作产品和过程以保证过程质量？</t>
-  </si>
-  <si>
-    <t>- How do you plan for quality assurance?
-'您如何为质量保证做计划？</t>
-  </si>
-  <si>
-    <t>- How do you objectively evaluate process and work products?
-'如何客观评价过程和工作产品？</t>
-  </si>
-  <si>
-    <t>- How to you communicate and address non-compliance issues?
-'您如何沟通和解决不符合项问题？</t>
   </si>
   <si>
     <t>- Where do you record the results of quality assurance activities?
@@ -4308,6 +4276,41 @@
   <si>
     <t>- What records, such as version history, do you maintain on configuration items?
 '对于配置项会保留哪些记录？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- What is your strategy (business goals) do you have? What policies do you have to support you achieving the strategy (business goals)? Does the policy require staff to follow proces in support of your strategy (business goals)? 
+- How do they tell staff that they expect them to follow process in order to achieve the business objectives? 
+- How does senior management identify what is essential for doing work?
+- How does senior management define the approach needed to accomplish the objectives of the organisation?       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- HOw do you communicate your strategy (business goals) to staff? How do you communicate your policy to staff?
+- What organisational objectives has senior management defined and communicated?
+- Are these objectives to be achieved through process improvements?	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- What resources (budget, people, tools, structure)  and training have you (senior management) provided for 1) developing, supporting, 2) performing, 3) improving and 4) evaluating adherence to expected processes?	 </t>
+  </si>
+  <si>
+    <t>- What information (reporting) do you request (and do you obtain) from projects and support functions that informat you about strategy (business goal) acheivement? How do you (senior management) provide governance and oversight of effective process implementation and improvement?</t>
+  </si>
+  <si>
+    <t>- What quality assurance reports do you obtain about compliance/ non-compliance to your policy (in support of your strategy)? What do you do with non-complinace? How do you handel exemplary compliance and support for process? How do you (senior management) provide governance and oversight of effective process implementation and improvement?</t>
+  </si>
+  <si>
+    <t>- Based on historical data, how do you plan for quality assurance?
+- How do you plan for quality assurance?
+'您如何为质量保证做计划？</t>
+  </si>
+  <si>
+    <t>- Throughout the project, how do you objectively evaluate process and work products??
+- How do you objectively evaluate process and work products?
+'如何客观评价过程和工作产品？</t>
+  </si>
+  <si>
+    <t>- Explain how quality and non-compliance issues that cannot be resolve, are handled?
+- How to you communicate and address non-compliance issues?
+'您如何沟通和解决不符合项问题？</t>
   </si>
 </sst>
 </file>
@@ -5970,8 +5973,8 @@
   </sheetPr>
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -5987,7 +5990,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -6144,7 +6147,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -6163,19 +6166,19 @@
     </row>
     <row r="10" spans="1:23" s="27" customFormat="1" ht="39">
       <c r="A10" s="64" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C10" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>499</v>
       </c>
-      <c r="D10" s="65" t="s">
-        <v>500</v>
-      </c>
       <c r="E10" s="65" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -6209,19 +6212,19 @@
     </row>
     <row r="12" spans="1:23" s="52" customFormat="1" ht="91">
       <c r="A12" s="64" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C12" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>502</v>
-      </c>
       <c r="E12" s="65" t="s">
-        <v>857</v>
+        <v>1205</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -6244,19 +6247,19 @@
     </row>
     <row r="13" spans="1:23" s="53" customFormat="1" ht="78">
       <c r="A13" s="64" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>504</v>
-      </c>
       <c r="E13" s="65" t="s">
-        <v>858</v>
+        <v>1206</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -6279,38 +6282,38 @@
     </row>
     <row r="14" spans="1:23" s="27" customFormat="1" ht="91">
       <c r="A14" s="64" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C14" s="65" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>505</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>506</v>
-      </c>
       <c r="E14" s="65" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:23" s="27" customFormat="1" ht="26">
       <c r="A15" s="64" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>507</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>508</v>
-      </c>
       <c r="E15" s="65" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -6344,19 +6347,19 @@
     </row>
     <row r="17" spans="1:23" s="52" customFormat="1" ht="52">
       <c r="A17" s="64" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C17" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>510</v>
-      </c>
       <c r="E17" s="65" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -7282,7 +7285,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -7433,7 +7436,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -7455,16 +7458,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -7474,16 +7477,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C11" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="D11" s="65" t="s">
         <v>512</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>513</v>
-      </c>
       <c r="E11" s="65" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="64"/>
@@ -7534,14 +7537,14 @@
         <v>94</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -7551,14 +7554,14 @@
         <v>95</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
@@ -7568,16 +7571,16 @@
         <v>96</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>515</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>516</v>
-      </c>
       <c r="E15" s="65" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -7602,16 +7605,16 @@
         <v>97</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C16" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>517</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>518</v>
-      </c>
       <c r="E16" s="65" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -7636,16 +7639,16 @@
         <v>98</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C17" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="D17" s="65" t="s">
         <v>519</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>520</v>
-      </c>
       <c r="E17" s="65" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -7655,16 +7658,16 @@
         <v>99</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C18" s="84" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="84" t="s">
         <v>521</v>
       </c>
-      <c r="D18" s="84" t="s">
-        <v>522</v>
-      </c>
       <c r="E18" s="84" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -7685,14 +7688,14 @@
         <v>100</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
@@ -7717,14 +7720,14 @@
         <v>101</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
@@ -7749,14 +7752,14 @@
         <v>102</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
@@ -7766,14 +7769,14 @@
         <v>103</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="F23" s="64"/>
       <c r="G23" s="64"/>
@@ -7783,14 +7786,14 @@
         <v>104</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
@@ -7815,14 +7818,14 @@
         <v>105</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F25" s="64"/>
       <c r="G25" s="64"/>
@@ -7858,14 +7861,14 @@
         <v>106</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="64"/>
@@ -7875,14 +7878,14 @@
         <v>107</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F28" s="64"/>
       <c r="G28" s="64"/>
@@ -7907,14 +7910,14 @@
         <v>108</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -7939,14 +7942,14 @@
         <v>109</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="65" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="64"/>
@@ -7971,14 +7974,14 @@
         <v>110</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="F31" s="64"/>
       <c r="G31" s="64"/>
@@ -8014,14 +8017,14 @@
         <v>111</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="F33" s="64"/>
       <c r="G33" s="64"/>
@@ -8046,14 +8049,14 @@
         <v>112</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
@@ -8078,14 +8081,14 @@
         <v>113</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -8120,7 +8123,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -8201,14 +8204,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -8229,16 +8232,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -8248,16 +8251,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>540</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>541</v>
-      </c>
       <c r="E13" s="65" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -8278,16 +8281,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -8297,16 +8300,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C16" s="65" t="s">
+        <v>543</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>544</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>545</v>
-      </c>
       <c r="E16" s="65" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -8316,16 +8319,16 @@
         <v>28</v>
       </c>
       <c r="B17" s="64" t="s">
+        <v>905</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" s="65" t="s">
         <v>913</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>547</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>546</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>921</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -8335,16 +8338,16 @@
         <v>29</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="C18" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>548</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>549</v>
-      </c>
       <c r="E18" s="65" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="64"/>
@@ -8354,16 +8357,16 @@
         <v>30</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="C19" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="D19" s="65" t="s">
         <v>550</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>551</v>
-      </c>
       <c r="E19" s="65" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="F19" s="65"/>
       <c r="G19" s="64"/>
@@ -8384,16 +8387,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F21" s="65"/>
       <c r="G21" s="64"/>
@@ -8403,16 +8406,16 @@
         <v>33</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="F22" s="84"/>
       <c r="G22" s="64"/>
@@ -8433,16 +8436,16 @@
         <v>35</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F24" s="65"/>
       <c r="G24" s="64"/>
@@ -8553,7 +8556,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="31" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -8829,7 +8832,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -8903,16 +8906,16 @@
         <v>164</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -8959,14 +8962,14 @@
         <v>165</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="65" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -9002,14 +9005,14 @@
         <v>166</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -9045,14 +9048,14 @@
         <v>167</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="65" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -9099,14 +9102,14 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="65" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -9142,14 +9145,14 @@
         <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="65" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -9185,16 +9188,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -9230,12 +9233,12 @@
         <v>171</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="65" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -9245,12 +9248,12 @@
         <v>172</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="65" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -9286,12 +9289,12 @@
         <v>173</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
       <c r="E21" s="65" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
@@ -9327,12 +9330,12 @@
         <v>174</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
       <c r="E22" s="65" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="10"/>
@@ -9405,7 +9408,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="39" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -9559,7 +9562,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="25" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -9589,7 +9592,7 @@
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
@@ -9625,16 +9628,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -9643,7 +9646,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="25" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -9681,24 +9684,24 @@
         <v>71</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
       <c r="H12" s="25" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -9715,29 +9718,29 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="C13" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>573</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>574</v>
-      </c>
       <c r="E13" s="63" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
       <c r="H13" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="25" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -9751,27 +9754,27 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -9809,27 +9812,27 @@
         <v>74</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
       <c r="H16" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="25" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -9843,24 +9846,24 @@
         <v>75</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
       <c r="H17" s="25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -9875,7 +9878,7 @@
     <row r="18" spans="1:18" s="28" customFormat="1">
       <c r="G18" s="30"/>
       <c r="H18" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="30"/>
@@ -10564,7 +10567,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -10637,7 +10640,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -10661,16 +10664,16 @@
         <v>177</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
@@ -10680,14 +10683,14 @@
         <v>178</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F11" s="101"/>
       <c r="G11" s="64"/>
@@ -10699,14 +10702,14 @@
         <v>179</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="65" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="64"/>
@@ -10730,38 +10733,38 @@
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" ht="52">
       <c r="A14" s="64" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="F14" s="101"/>
       <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:9" s="52" customFormat="1" ht="65">
       <c r="A15" s="64" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="64"/>
@@ -10785,19 +10788,19 @@
     </row>
     <row r="17" spans="1:9" s="53" customFormat="1" ht="65">
       <c r="A17" s="64" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F17" s="101"/>
       <c r="G17" s="64"/>
@@ -10806,36 +10809,36 @@
     </row>
     <row r="18" spans="1:9" s="27" customFormat="1" ht="52">
       <c r="A18" s="64" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:9" s="52" customFormat="1" ht="65">
       <c r="A19" s="64" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -10844,19 +10847,19 @@
     </row>
     <row r="20" spans="1:9" s="52" customFormat="1" ht="65">
       <c r="A20" s="64" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
@@ -10865,19 +10868,19 @@
     </row>
     <row r="21" spans="1:9" s="53" customFormat="1" ht="52">
       <c r="A21" s="64" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
@@ -10886,17 +10889,17 @@
     </row>
     <row r="22" spans="1:9" s="53" customFormat="1" ht="52">
       <c r="A22" s="64" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="65" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
@@ -10920,19 +10923,19 @@
     </row>
     <row r="24" spans="1:9" s="53" customFormat="1" ht="156">
       <c r="A24" s="64" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
@@ -10953,7 +10956,7 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -10971,7 +10974,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -11079,7 +11082,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -11105,12 +11108,12 @@
         <v>128</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -11135,12 +11138,12 @@
         <v>129</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -11152,12 +11155,12 @@
         <v>130</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -11184,12 +11187,12 @@
         <v>131</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -11201,12 +11204,12 @@
         <v>132</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -11218,12 +11221,12 @@
         <v>133</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -11235,14 +11238,14 @@
         <v>134</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="63" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -11254,12 +11257,12 @@
         <v>135</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -11271,12 +11274,12 @@
         <v>136</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -11530,7 +11533,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="39" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -11701,7 +11704,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -11745,18 +11748,18 @@
         <v>62</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="65" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="27"/>
@@ -11773,12 +11776,12 @@
         <v>63</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="65" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="64"/>
@@ -11815,20 +11818,20 @@
         <v>64</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="27"/>
@@ -11845,12 +11848,12 @@
         <v>65</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="65" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
@@ -11871,12 +11874,12 @@
         <v>66</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -11889,12 +11892,12 @@
         <v>67</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -11907,12 +11910,12 @@
         <v>68</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="65" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -11957,14 +11960,14 @@
         <v>69</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="65" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="F19" s="65"/>
       <c r="G19" s="64"/>
@@ -12012,10 +12015,10 @@
       <c r="G22" s="30"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
@@ -12030,10 +12033,10 @@
       <c r="G23" s="30"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -12049,7 +12052,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
@@ -12573,7 +12576,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="87"/>
@@ -12747,7 +12750,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -12756,7 +12759,7 @@
         <v>387</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -12795,14 +12798,14 @@
         <v>116</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="63" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -12823,14 +12826,14 @@
         <v>117</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -12875,12 +12878,12 @@
         <v>118</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -12901,14 +12904,14 @@
         <v>119</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -12929,16 +12932,16 @@
         <v>120</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -12959,16 +12962,16 @@
         <v>121</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -13013,22 +13016,22 @@
         <v>122</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
       <c r="H18" s="100"/>
       <c r="I18" s="100" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -13045,14 +13048,14 @@
         <v>123</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -13073,14 +13076,14 @@
         <v>124</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -13101,14 +13104,14 @@
         <v>125</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="63" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
@@ -13129,7 +13132,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="100"/>
       <c r="I22" s="100" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
@@ -13604,7 +13607,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="39" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -13778,7 +13781,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -13811,12 +13814,12 @@
         <v>139</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="65" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
@@ -13859,12 +13862,12 @@
         <v>140</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="65" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
@@ -13885,12 +13888,12 @@
         <v>141</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="65" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -13900,14 +13903,14 @@
         <v>142</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="65" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
@@ -13917,12 +13920,12 @@
         <v>143</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -13965,14 +13968,14 @@
         <v>144</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D17" s="64"/>
       <c r="E17" s="65" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -20586,7 +20589,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="87"/>
@@ -20760,7 +20763,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="96" t="s">
         <v>471</v>
@@ -20788,10 +20791,10 @@
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="27" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="30"/>
@@ -20808,18 +20811,18 @@
         <v>212</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="65" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
       <c r="H10" s="27"/>
       <c r="I10" s="25" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="30"/>
@@ -20860,21 +20863,21 @@
         <v>213</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="65" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
       <c r="H12" s="27"/>
       <c r="I12" s="25" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="17"/>
@@ -20890,18 +20893,18 @@
         <v>214</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="65" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
       <c r="H13" s="27"/>
       <c r="I13" s="25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="30"/>
@@ -20942,19 +20945,19 @@
         <v>215</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="65" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
       <c r="H15" s="27"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="17"/>
@@ -20970,19 +20973,19 @@
         <v>216</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="65" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
       <c r="H16" s="27"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="17"/>
@@ -20998,19 +21001,19 @@
         <v>217</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="65" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
       <c r="H17" s="27"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="17"/>
@@ -21026,19 +21029,19 @@
         <v>218</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="65" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="64"/>
       <c r="H18" s="27"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="17"/>
@@ -21054,19 +21057,19 @@
         <v>219</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="65" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F19" s="65"/>
       <c r="G19" s="64"/>
       <c r="H19" s="27"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="17"/>
@@ -21117,7 +21120,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="30"/>
@@ -21136,10 +21139,10 @@
       <c r="G23" s="27"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -21174,7 +21177,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="30"/>
@@ -21209,7 +21212,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="25" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="30"/>
@@ -21599,7 +21602,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="31" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -21773,7 +21776,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -21801,13 +21804,13 @@
       <c r="F9" s="70"/>
       <c r="G9" s="74"/>
       <c r="H9" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="17"/>
       <c r="L9" s="25" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
@@ -21821,12 +21824,12 @@
         <v>147</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -21835,7 +21838,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="17"/>
       <c r="L10" s="25" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -21849,12 +21852,12 @@
         <v>148</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="63" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -21863,7 +21866,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="17"/>
       <c r="L11" s="25" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
@@ -21901,25 +21904,25 @@
         <v>149</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
       <c r="H13" s="25" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="17"/>
       <c r="L13" s="25" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -21933,25 +21936,25 @@
         <v>150</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
       <c r="H14" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="17"/>
       <c r="L14" s="25" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -21965,23 +21968,23 @@
         <v>151</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="17"/>
       <c r="L15" s="25" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -21995,25 +21998,25 @@
         <v>152</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
       <c r="H16" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="17"/>
       <c r="L16" s="25" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -22027,20 +22030,20 @@
         <v>153</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
       <c r="H17" s="25" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="17"/>
@@ -22057,18 +22060,18 @@
         <v>154</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="63" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="17"/>
@@ -22085,20 +22088,20 @@
         <v>155</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
       <c r="H19" s="25" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="17"/>
@@ -22115,18 +22118,18 @@
         <v>156</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="17"/>
@@ -22167,20 +22170,20 @@
         <v>157</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="63" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="10"/>
       <c r="H22" s="25" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="17"/>
@@ -22197,20 +22200,20 @@
         <v>158</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="63" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="10"/>
       <c r="H23" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="17"/>
@@ -22227,25 +22230,25 @@
         <v>159</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="63" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="F24" s="63"/>
       <c r="G24" s="10"/>
       <c r="H24" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="17"/>
       <c r="L24" s="25" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -22259,25 +22262,25 @@
         <v>160</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="63" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F25" s="63"/>
       <c r="G25" s="10"/>
       <c r="H25" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="17"/>
       <c r="L25" s="25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -22315,20 +22318,20 @@
         <v>161</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="63" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="10"/>
       <c r="H27" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="17"/>
@@ -22343,13 +22346,13 @@
     <row r="28" spans="1:18" s="28" customFormat="1">
       <c r="G28" s="30"/>
       <c r="H28" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="25"/>
@@ -22363,11 +22366,11 @@
     <row r="29" spans="1:18" s="28" customFormat="1">
       <c r="G29" s="30"/>
       <c r="H29" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K29" s="30"/>
       <c r="L29" s="25"/>
@@ -22747,7 +22750,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -22921,7 +22924,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -22965,12 +22968,12 @@
         <v>196</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -23000,7 +23003,7 @@
       <c r="G11" s="74"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -23017,18 +23020,18 @@
         <v>197</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -23045,20 +23048,20 @@
         <v>198</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
       <c r="H13" s="25" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -23075,17 +23078,17 @@
         <v>199</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
       <c r="H14" s="25" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="17"/>
@@ -23103,18 +23106,18 @@
         <v>200</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -23131,18 +23134,18 @@
         <v>201</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="10"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -23159,20 +23162,20 @@
         <v>202</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="10"/>
       <c r="H17" s="25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -23213,18 +23216,18 @@
         <v>203</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="10"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -23241,18 +23244,18 @@
         <v>204</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -23269,18 +23272,18 @@
         <v>205</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="63" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -23297,18 +23300,18 @@
         <v>206</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="63" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="10"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -23325,18 +23328,18 @@
         <v>207</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="63" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="10"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -23353,12 +23356,12 @@
         <v>208</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="63" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="F24" s="63"/>
       <c r="G24" s="10"/>
@@ -23379,18 +23382,18 @@
         <v>209</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="63" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F25" s="63"/>
       <c r="G25" s="10"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -23758,7 +23761,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -23932,7 +23935,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -23976,12 +23979,12 @@
         <v>184</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -24024,18 +24027,18 @@
         <v>185</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="17"/>
@@ -24052,18 +24055,18 @@
         <v>186</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="17"/>
@@ -24080,18 +24083,18 @@
         <v>187</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="17"/>
@@ -24108,18 +24111,18 @@
         <v>188</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="17"/>
@@ -24136,18 +24139,18 @@
         <v>189</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="17"/>
@@ -24164,12 +24167,12 @@
         <v>190</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -24214,12 +24217,12 @@
         <v>191</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -24240,12 +24243,12 @@
         <v>192</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -24266,12 +24269,12 @@
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="63" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="10"/>
@@ -24977,7 +24980,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -25151,7 +25154,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -25195,12 +25198,12 @@
         <v>233</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -25243,18 +25246,18 @@
         <v>234</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="17"/>
@@ -25271,18 +25274,18 @@
         <v>235</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="17"/>
@@ -25299,18 +25302,18 @@
         <v>236</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="17"/>
@@ -25351,18 +25354,18 @@
         <v>237</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="17"/>
@@ -25379,18 +25382,18 @@
         <v>238</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
       <c r="H17" s="25"/>
       <c r="I17" s="34" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="17"/>
@@ -25407,12 +25410,12 @@
         <v>239</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="63" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -25433,12 +25436,12 @@
         <v>240</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -25459,12 +25462,12 @@
         <v>241</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -25485,18 +25488,18 @@
         <v>242</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="10"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="17"/>
@@ -26198,7 +26201,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -26372,7 +26375,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -26416,12 +26419,12 @@
         <v>245</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="10"/>
@@ -26442,12 +26445,12 @@
         <v>246</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="63" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -26492,12 +26495,12 @@
         <v>247</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="63" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -26518,12 +26521,12 @@
         <v>248</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -26544,12 +26547,12 @@
         <v>249</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -26594,12 +26597,12 @@
         <v>250</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -26620,12 +26623,12 @@
         <v>251</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="63" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="10"/>
@@ -26981,7 +26984,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="37" customFormat="1" ht="26">
       <c r="A1" s="85" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
@@ -27155,7 +27158,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="82" t="s">
         <v>471</v>
@@ -27199,12 +27202,12 @@
         <v>221</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="63" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
@@ -27225,12 +27228,12 @@
         <v>222</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="63" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="10"/>
@@ -27251,12 +27254,12 @@
         <v>223</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="63" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="10"/>
@@ -27301,12 +27304,12 @@
         <v>224</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="63" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="10"/>
@@ -27327,12 +27330,12 @@
         <v>225</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="63" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="10"/>
@@ -27353,12 +27356,12 @@
         <v>226</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="63" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="10"/>
@@ -27379,12 +27382,12 @@
         <v>227</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="63" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -27429,12 +27432,12 @@
         <v>228</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="63" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="10"/>
@@ -27455,12 +27458,12 @@
         <v>229</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="63" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="10"/>
@@ -27956,97 +27959,97 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="102" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="102" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="102" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="102" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -28190,10 +28193,10 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -28213,7 +28216,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -28329,7 +28332,7 @@
     </row>
     <row r="7" spans="1:18" s="25" customFormat="1">
       <c r="G7" s="30" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -28356,10 +28359,10 @@
         <v>387</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="51" customFormat="1">
@@ -28392,27 +28395,27 @@
         <v>288</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>830</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="94" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="103"/>
       <c r="I10" s="103" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J10" s="103"/>
       <c r="K10" s="103"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
@@ -28447,32 +28450,32 @@
         <v>77</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>833</v>
+        <v>1201</v>
       </c>
       <c r="F12" s="94" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H12" s="103" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I12" s="103"/>
       <c r="J12" s="103"/>
       <c r="K12" s="103"/>
       <c r="L12" s="66"/>
       <c r="M12" s="66" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="N12" s="66"/>
       <c r="O12" s="66"/>
@@ -28485,19 +28488,19 @@
         <v>78</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>596</v>
+        <v>1202</v>
       </c>
       <c r="F13" s="94" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G13" s="66"/>
       <c r="H13" s="103"/>
@@ -28506,7 +28509,7 @@
       <c r="K13" s="103"/>
       <c r="L13" s="66"/>
       <c r="M13" s="66" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -28519,19 +28522,19 @@
         <v>79</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C14" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>477</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>478</v>
-      </c>
       <c r="E14" s="65" t="s">
-        <v>598</v>
+        <v>1203</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="103"/>
@@ -28540,7 +28543,7 @@
       <c r="K14" s="103"/>
       <c r="L14" s="66"/>
       <c r="M14" s="66" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -28553,32 +28556,32 @@
         <v>80</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>472</v>
+        <v>1204</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H15" s="103" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I15" s="103"/>
       <c r="J15" s="103"/>
       <c r="K15" s="103"/>
       <c r="L15" s="66"/>
       <c r="M15" s="66" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -28613,23 +28616,23 @@
         <v>81</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C17" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="D17" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>475</v>
-      </c>
       <c r="E17" s="65" t="s">
+        <v>596</v>
+      </c>
+      <c r="F17" s="94" t="s">
         <v>599</v>
-      </c>
-      <c r="F17" s="94" t="s">
-        <v>602</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="103" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I17" s="103"/>
       <c r="J17" s="103"/>
@@ -28647,17 +28650,17 @@
         <v>82</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="65" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G18" s="66"/>
       <c r="H18" s="103"/>
@@ -28666,7 +28669,7 @@
       <c r="K18" s="103"/>
       <c r="L18" s="66"/>
       <c r="M18" s="66" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -28701,17 +28704,17 @@
         <v>83</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D20" s="64"/>
       <c r="E20" s="65" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="103"/>
@@ -28720,7 +28723,7 @@
       <c r="K20" s="103"/>
       <c r="L20" s="66"/>
       <c r="M20" s="66" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -29296,7 +29299,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -29429,7 +29432,7 @@
         <v>387</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="77" t="s">
         <v>471</v>
@@ -29479,22 +29482,22 @@
         <v>84</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>798</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>801</v>
-      </c>
       <c r="D10" s="63" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="10"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -29543,16 +29546,16 @@
         <v>85</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="s">
@@ -29580,16 +29583,16 @@
         <v>86</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="10"/>
@@ -29642,22 +29645,22 @@
         <v>87</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -29681,20 +29684,20 @@
         <v>88</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="78" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -29718,16 +29721,16 @@
         <v>89</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="10"/>
@@ -33898,7 +33901,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="25" customFormat="1" ht="26">
       <c r="A1" s="24" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C1" s="26"/>
       <c r="G1" s="30"/>
@@ -34064,21 +34067,21 @@
         <v>36</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C10" s="65" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="D10" s="65" t="s">
-        <v>486</v>
-      </c>
       <c r="E10" s="65" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="64"/>
       <c r="I10" s="25" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="52" customFormat="1">
@@ -34112,22 +34115,22 @@
         <v>56</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C12" s="65" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>488</v>
-      </c>
       <c r="E12" s="65" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
       <c r="H12" s="27"/>
       <c r="I12" s="25" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -34148,16 +34151,16 @@
         <v>57</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>489</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>490</v>
-      </c>
       <c r="E13" s="65" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
@@ -34182,23 +34185,23 @@
         <v>58</v>
       </c>
       <c r="B14" s="69" t="s">
+        <v>837</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>842</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>847</v>
       </c>
       <c r="G14" s="64"/>
       <c r="I14" s="25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="27" customFormat="1" ht="104">
@@ -34206,16 +34209,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>493</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>494</v>
-      </c>
       <c r="E15" s="65" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
@@ -34226,16 +34229,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C16" s="65" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>496</v>
-      </c>
       <c r="E16" s="65" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
@@ -34260,16 +34263,16 @@
         <v>61</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C17" s="65" t="s">
+        <v>496</v>
+      </c>
+      <c r="D17" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>498</v>
-      </c>
       <c r="E17" s="65" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
@@ -35018,6 +35021,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F041F74863103D4C9C3AA0A07291BB02" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6917a42179461cc29e626d7b562cefd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25bcabcf-d275-4206-9fb1-2f2d419cd22b" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a71d797267f4c7d6ca005f01f7b1c6c" ns2:_="" ns3:_="">
     <xsd:import namespace="25bcabcf-d275-4206-9fb1-2f2d419cd22b"/>
@@ -35234,22 +35252,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4696E80A-5EE3-495A-8B89-1496BDDC23B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35266,29 +35294,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>